--- a/asdf.xlsx
+++ b/asdf.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -557,7 +557,7 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>James Bowing, Chris Smith</t>
+          <t>James Bowling, Chris Smith</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B4" s="23" t="n">
-        <v>6863</v>
+        <v>8237</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E5" s="13" t="inlineStr">
         <is>
@@ -674,17 +674,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>68 7844/2560</t>
+          <t>FIX--136491704</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9055</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$110.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -701,17 +701,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>156/531</t>
+          <t>2-660/10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>90248334</t>
+          <t>3201814987</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$630.00</t>
+          <t>$100.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -728,17 +728,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>105/313</t>
+          <t>FIX--106303307</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>996268</t>
+          <t>9072</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$110.00</t>
+          <t>$70.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -755,17 +755,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>339/515</t>
+          <t>2-660/10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>975826</t>
+          <t>3201815001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$219.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -782,17 +782,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>88-327/1131</t>
+          <t>63-1403/631</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10347</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$1,000.00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -809,17 +809,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>63-466/631</t>
+          <t>63-1403/631</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20809</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$250.00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -836,17 +836,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2 660/10</t>
+          <t>20-1-740</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3169142970</t>
+          <t>14347</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$250.00</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -863,12 +863,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2 660/10</t>
+          <t>112/531</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3172186224</t>
+          <t>975602</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -881,17 +881,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>81-146/0829</t>
+          <t>3/540</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$1,000.00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -899,17 +899,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7426/3140</t>
+          <t>56-382/412</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>997250</t>
+          <t>61438877</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$495.00</t>
+          <t>$750.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -917,17 +917,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>81 713/829</t>
+          <t>81-773/829</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7011</t>
+          <t>17609</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$100.00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -935,17 +935,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2 660/10</t>
+          <t>65-7198/2550</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3172836221</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$219.00</t>
+          <t>$75.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -953,17 +953,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2 660/10</t>
+          <t>11-35/1210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3172836209</t>
+          <t>300307400</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$50.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -971,17 +971,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>60-142/313</t>
+          <t>11-35/1210</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3845</t>
+          <t>300307426</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$50.00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -989,17 +989,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>63-9138/2631</t>
+          <t>80-1876/865</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11818</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$50.00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1007,17 +1007,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>71-208/749</t>
+          <t>68-7844/2560</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>33169</t>
+          <t>9061</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$150.00</t>
+          <t>$110.00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1025,17 +1025,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>37-65/1119</t>
+          <t>11-35/1210</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7965</t>
+          <t>2251</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1043,17 +1043,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>80-1876/865</t>
+          <t>68-7844/2560</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$654.00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1061,17 +1061,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>56-382/412</t>
+          <t>FIX--112545731</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>58829478</t>
+          <t>7426</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$10.00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1079,17 +1079,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>69-736/519</t>
+          <t>85-543/653</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>41295</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1097,17 +1097,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>56-382/412</t>
+          <t>7-163/520</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>58727554</t>
+          <t>621</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$750.00</t>
+          <t>$1,200.00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1115,17 +1115,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>68 894/514</t>
+          <t>68-1/510</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12195</t>
+          <t>512</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1133,17 +1133,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>65-7259/2550</t>
+          <t>54-8965/2114</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$300.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1151,17 +1151,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11-35/1210</t>
+          <t>68-106/560</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>300278097</t>
+          <t>613</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$75.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1169,230 +1169,32 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11-35/1210</t>
+          <t>65-270/550</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>300278409</t>
+          <t>1819</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>25-3/440</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>819026417</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>$50.00</t>
-        </is>
+          <t>Check Total</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7813</v>
       </c>
       <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>FIX--92602220</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>$75.00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>FIX--30341647</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2824</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>FIX--116570339</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1221</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>$50.00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>FIX--71048096</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3006</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>$25.00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>FIX--124636766</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1815</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>FIX--28996075</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>$175.00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>FIX--109490723</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2059</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>$250.00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>FIX--</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>683</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>$174.00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>FIX--</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2635</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>$44.00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>FIX--</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1270</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>$32.00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Check Totoal</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>6439</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/asdf.xlsx
+++ b/asdf.xlsx
@@ -23,10 +23,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -87,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -121,6 +120,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -136,12 +136,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -526,12 +522,12 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.796875" defaultRowHeight="13.8"/>
   <cols>
-    <col width="15" customWidth="1" style="13" min="1" max="1"/>
+    <col width="15" customWidth="1" style="14" min="1" max="1"/>
     <col width="11.19921875" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
     <col width="10.796875" customWidth="1" style="4" min="3" max="3"/>
     <col width="10.796875" customWidth="1" style="3" min="4" max="4"/>
@@ -542,7 +538,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>First Baptist Church of Kingstowne
 7313 Hayfield Road
@@ -557,17 +553,17 @@
       </c>
       <c r="E1" s="11" t="inlineStr">
         <is>
-          <t>James Bowling, Chris Smith</t>
+          <t>James Bowling, Chris Rizzo, Chris Smith</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="inlineStr">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Deposit Ticket</t>
         </is>
       </c>
-      <c r="G2" s="20" t="n"/>
+      <c r="G2" s="4" t="n"/>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -575,27 +571,27 @@
           <t xml:space="preserve">Date: </t>
         </is>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <f>TODAY()</f>
         <v/>
       </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">Truist Routing Number: </t>
         </is>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="15" t="n">
         <v>55002707</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>Total Deposit</t>
         </is>
       </c>
-      <c r="B4" s="23" t="n">
-        <v>8237</v>
+      <c r="B4" s="22" t="n">
+        <v>10962</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
@@ -604,36 +600,36 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>F0443524</t>
-        </is>
-      </c>
-      <c r="G4" s="20" t="n"/>
+          <t>F0443516</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="n"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>Item Count</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve">Account Number: </t>
         </is>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="15" t="n">
         <v>202331792</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="inlineStr">
+      <c r="A6" s="16" t="inlineStr">
         <is>
           <t>Checks</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="17" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
@@ -665,7 +661,7 @@
           <t>Count</t>
         </is>
       </c>
-      <c r="G7" s="21" t="inlineStr">
+      <c r="G7" s="20" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -674,126 +670,106 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FIX--136491704</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2817</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$300.00</t>
-        </is>
+          <t>68-7844/2560</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9062</v>
+      </c>
+      <c r="C8" t="n">
+        <v>110</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2-660/10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3201814987</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>$100.00</t>
-        </is>
+          <t>85-129/842</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11918</v>
+      </c>
+      <c r="C9" t="n">
+        <v>165</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FIX--106303307</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>9072</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>$70.00</t>
-        </is>
+          <t>68-251/514</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7060</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2-660/10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3201815001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>$219.00</t>
-        </is>
+          <t>88-1658/1119</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18069</v>
+      </c>
+      <c r="C11" t="n">
+        <v>400</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>63-1403/631</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>$1,000.00</t>
-        </is>
+          <t>56-382/412</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>63581767</v>
+      </c>
+      <c r="C12" t="n">
+        <v>450</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
@@ -809,45 +785,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>63-1403/631</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>$250.00</t>
-        </is>
+          <t>7426/3140</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>997260</v>
+      </c>
+      <c r="C13" t="n">
+        <v>495</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20-1-740</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>14347</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>$400.00</t>
-        </is>
+          <t>65-313/550</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>31056</v>
+      </c>
+      <c r="C14" t="n">
+        <v>150</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -857,222 +825,174 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>424</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>112/531</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>975602</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>$50.00</t>
-        </is>
+          <t>68-446/514</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4252</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/540</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>8790</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>$1,000.00</t>
-        </is>
+          <t>68-426/514</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>56-382/412</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>61438877</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>$750.00</t>
-        </is>
+          <t>81-430/829</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7407</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>81-773/829</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>17609</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>$100.00</t>
-        </is>
+          <t>95-2443/1120</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12848</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65-7198/2550</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1907</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>$75.00</t>
-        </is>
+          <t>7-163/520</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5099</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-35/1210</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>300307400</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>$50.00</t>
-        </is>
+          <t>88-271/1131</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2826</v>
+      </c>
+      <c r="C20" t="n">
+        <v>300</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-35/1210</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>300307426</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>$50.00</t>
-        </is>
+          <t>68-444/560</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17098</v>
+      </c>
+      <c r="C21" t="n">
+        <v>200</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80-1876/865</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>$50.00</t>
-        </is>
+          <t>FIX--124413480</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>22034781408</v>
+      </c>
+      <c r="C22" t="n">
+        <v>500</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>68-7844/2560</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>9061</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>$110.00</t>
-        </is>
+          <t>FIX--124413480</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22034781409</v>
+      </c>
+      <c r="C23" t="n">
+        <v>500</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11-35/1210</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2251</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
+          <t>54-8965/2114</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2065</v>
+      </c>
+      <c r="C24" t="n">
+        <v>350</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>68-7844/2560</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>$654.00</t>
-        </is>
+          <t>85-543/653</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5653</v>
+      </c>
+      <c r="C25" t="n">
+        <v>100</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FIX--112545731</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>7426</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>$10.00</t>
-        </is>
+          <t>7-163/520</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9732</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5500</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
@@ -1082,69 +1002,53 @@
           <t>85-543/653</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2839</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
+      <c r="B27" t="n">
+        <v>2842</v>
+      </c>
+      <c r="C27" t="n">
+        <v>200</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7-163/520</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>621</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>$1,200.00</t>
-        </is>
+          <t>68-426/514</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3033</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50</v>
       </c>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>68-1/510</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>$400.00</t>
-        </is>
+          <t>65-270/550</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1821</v>
+      </c>
+      <c r="C29" t="n">
+        <v>200</v>
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>54-8965/2114</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2064</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>$300.00</t>
-        </is>
+          <t>68-7497/2560</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>329</v>
+      </c>
+      <c r="C30" t="n">
+        <v>150</v>
       </c>
       <c r="D30" t="inlineStr"/>
     </row>
@@ -1154,33 +1058,25 @@
           <t>68-106/560</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>613</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>$75.00</t>
-        </is>
+      <c r="B31" t="n">
+        <v>614</v>
+      </c>
+      <c r="C31" t="n">
+        <v>150</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>65-270/550</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1819</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>$200.00</t>
-        </is>
+          <t>68-1/510</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>516</v>
+      </c>
+      <c r="C32" t="n">
+        <v>150</v>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
@@ -1192,7 +1088,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7813</v>
+        <v>10610</v>
       </c>
       <c r="D33" t="inlineStr"/>
     </row>

--- a/asdf.xlsx
+++ b/asdf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csmith\proj\counting\counting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4C2D29-C2E2-483F-B0DB-9CF52A5EE0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32776AAB-5051-4ED2-9CA5-C171AA6DF567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>First Baptist Church of Kingstowne
 7313 Hayfield Rd. Alexandria, VA 22315
@@ -103,7 +103,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>FIX--118163906</t>
+    <t>68-654/514</t>
   </si>
   <si>
     <t>69-3/434</t>
@@ -118,40 +118,40 @@
     <t>112/531</t>
   </si>
   <si>
+    <t>90-4021/1211</t>
+  </si>
+  <si>
+    <t>68-894/514</t>
+  </si>
+  <si>
+    <t>88-820/1119</t>
+  </si>
+  <si>
+    <t>68-7844/2560</t>
+  </si>
+  <si>
+    <t>60-1503/313</t>
+  </si>
+  <si>
+    <t>20-1-740</t>
+  </si>
+  <si>
+    <t>81-878/829</t>
+  </si>
+  <si>
+    <t>68-426/514</t>
+  </si>
+  <si>
+    <t>64-79/611</t>
+  </si>
+  <si>
+    <t>54-8965/2114</t>
+  </si>
+  <si>
+    <t>68-7836/2560</t>
+  </si>
+  <si>
     <t>Check Total</t>
-  </si>
-  <si>
-    <t>90-4021/1211</t>
-  </si>
-  <si>
-    <t>FIX--106303307</t>
-  </si>
-  <si>
-    <t>FIX--107510642</t>
-  </si>
-  <si>
-    <t>68-7844/2560</t>
-  </si>
-  <si>
-    <t>60-1503/313</t>
-  </si>
-  <si>
-    <t>20-1-740</t>
-  </si>
-  <si>
-    <t>81-878/829</t>
-  </si>
-  <si>
-    <t>68-426/514</t>
-  </si>
-  <si>
-    <t>64-79/611</t>
-  </si>
-  <si>
-    <t>54-8965/2114</t>
-  </si>
-  <si>
-    <t>68-7836/2560</t>
   </si>
 </sst>
 </file>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -275,7 +275,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -604,7 +603,7 @@
     <col min="4" max="4" width="10.796875" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.69921875" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.69921875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="13" customWidth="1"/>
     <col min="8" max="8" width="10.796875" style="3" customWidth="1"/>
     <col min="9" max="16384" width="10.796875" style="3"/>
   </cols>
@@ -635,7 +634,7 @@
       </c>
       <c r="B3" s="10">
         <f ca="1">TODAY()</f>
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -664,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -712,7 +711,7 @@
       <c r="B8">
         <v>5122</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8">
         <v>150</v>
       </c>
       <c r="D8"/>
@@ -722,7 +721,7 @@
       <c r="F8">
         <v>25</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8">
         <v>25</v>
       </c>
     </row>
@@ -733,7 +732,7 @@
       <c r="B9">
         <v>10195</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9">
         <v>100</v>
       </c>
       <c r="D9"/>
@@ -743,7 +742,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9">
         <v>0</v>
       </c>
     </row>
@@ -754,7 +753,7 @@
       <c r="B10">
         <v>18125</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10">
         <v>4075</v>
       </c>
       <c r="D10"/>
@@ -764,7 +763,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
@@ -775,7 +774,7 @@
       <c r="B11">
         <v>18135</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11">
         <v>4075</v>
       </c>
       <c r="D11"/>
@@ -785,7 +784,7 @@
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11">
         <v>180</v>
       </c>
     </row>
@@ -796,7 +795,7 @@
       <c r="B12">
         <v>18142</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12">
         <v>4075</v>
       </c>
       <c r="D12"/>
@@ -806,7 +805,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
@@ -817,7 +816,7 @@
       <c r="B13">
         <v>18143</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13">
         <v>1000</v>
       </c>
       <c r="D13"/>
@@ -827,7 +826,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13">
         <v>0</v>
       </c>
     </row>
@@ -838,13 +837,17 @@
       <c r="B14">
         <v>18169</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14">
         <v>4075</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14" s="23"/>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>205</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -853,17 +856,13 @@
       <c r="B15">
         <v>18195</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15">
         <v>400</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="23">
-        <v>205</v>
-      </c>
+      <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -872,180 +871,242 @@
       <c r="B16">
         <v>978801</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16">
         <v>75</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="23">
-        <v>32890</v>
-      </c>
+      <c r="F16"/>
+      <c r="G16"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>7542</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17">
         <v>200</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="23">
-        <v>33095</v>
-      </c>
+      <c r="F17"/>
+      <c r="G17"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>9085</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18">
         <v>70</v>
       </c>
       <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>5564</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19">
         <v>100</v>
       </c>
       <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>9065</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20">
         <v>110</v>
       </c>
       <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>532</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21">
         <v>50</v>
       </c>
       <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>9066</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22">
         <v>110</v>
       </c>
       <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>14360</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23">
         <v>400</v>
       </c>
       <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>4822</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24">
         <v>150</v>
       </c>
       <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>15542</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25">
         <v>200</v>
       </c>
       <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>209899393</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26">
         <v>125</v>
       </c>
       <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2067</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27">
         <v>300</v>
       </c>
       <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>3110</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28">
         <v>13000</v>
       </c>
       <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>3041</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29">
         <v>50</v>
       </c>
       <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>32890</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>32890</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>33095</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
